--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/randomAttr.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/randomAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30285" windowHeight="15345"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,12 @@
     <t>attr_value</t>
   </si>
   <si>
+    <t>effect_id</t>
+  </si>
+  <si>
+    <t>effcct_timeout</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>添加多少数值</t>
+  </si>
+  <si>
+    <t>获得道具效果id</t>
+  </si>
+  <si>
+    <t>效果显示时间</t>
   </si>
   <si>
     <t>描述</t>
@@ -1010,20 +1022,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="46.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,75 +1050,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4" s="2">
+        <v>134249508</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5">
+        <v>134249508</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="D6">
+        <v>134249508</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/randomAttr.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/randomAttr.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -40,10 +40,7 @@
     <t>attr_value</t>
   </si>
   <si>
-    <t>effect_id</t>
-  </si>
-  <si>
-    <t>effcct_timeout</t>
+    <t>effcct_buff</t>
   </si>
   <si>
     <t>desc</t>
@@ -55,10 +52,7 @@
     <t>添加多少数值</t>
   </si>
   <si>
-    <t>获得道具效果id</t>
-  </si>
-  <si>
-    <t>效果显示时间</t>
+    <t>效果buff名称</t>
   </si>
   <si>
     <t>描述</t>
@@ -74,6 +68,9 @@
   </si>
   <si>
     <t>agility</t>
+  </si>
+  <si>
+    <t>升级</t>
   </si>
 </sst>
 </file>
@@ -86,7 +83,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +95,12 @@
       <sz val="10.5"/>
       <color rgb="FF4EC9B0"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -571,137 +574,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,22 +1028,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="46.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,108 +1058,90 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="2">
-        <v>134249508</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5">
-        <v>134249508</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
-      <c r="D6">
-        <v>134249508</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
